--- a/data/trans_orig/P15B_3_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P15B_3_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4572ED7B-B514-4479-8771-3120F4A1775E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7EE0C5DF-1746-475D-9CCB-9C8B45A6D7CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7C284B74-E942-49A5-8CC6-C25D81D47824}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{19FE6769-8825-4783-A9BD-EAAF6EFEFC75}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="398">
   <si>
     <t>Población que ha tenido un accidente en el trabajo en el último año en 2007 (Tasa respuesta: 3,21%)</t>
   </si>
@@ -92,7 +92,7 @@
     <t>45,33%</t>
   </si>
   <si>
-    <t>87,5%</t>
+    <t>87,44%</t>
   </si>
   <si>
     <t>No</t>
@@ -110,7 +110,7 @@
     <t>54,67%</t>
   </si>
   <si>
-    <t>12,5%</t>
+    <t>12,56%</t>
   </si>
   <si>
     <t>2/10</t>
@@ -119,10 +119,10 @@
     <t>37,99%</t>
   </si>
   <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>61,45%</t>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>60,87%</t>
   </si>
   <si>
     <t>13,49%</t>
@@ -131,19 +131,19 @@
     <t>22,24%</t>
   </si>
   <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>40,94%</t>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>42,29%</t>
   </si>
   <si>
     <t>62,01%</t>
   </si>
   <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
   </si>
   <si>
     <t>86,51%</t>
@@ -152,10 +152,10 @@
     <t>77,76%</t>
   </si>
   <si>
-    <t>59,06%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
+    <t>57,71%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -164,49 +164,49 @@
     <t>35,15%</t>
   </si>
   <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>50,81%</t>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>51,61%</t>
   </si>
   <si>
     <t>7,22%</t>
   </si>
   <si>
-    <t>24,98%</t>
+    <t>24,13%</t>
   </si>
   <si>
     <t>23,61%</t>
   </si>
   <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
   </si>
   <si>
     <t>64,85%</t>
   </si>
   <si>
-    <t>49,19%</t>
-  </si>
-  <si>
-    <t>79,85%</t>
+    <t>48,39%</t>
+  </si>
+  <si>
+    <t>78,83%</t>
   </si>
   <si>
     <t>92,78%</t>
   </si>
   <si>
-    <t>75,02%</t>
+    <t>75,87%</t>
   </si>
   <si>
     <t>76,39%</t>
   </si>
   <si>
-    <t>65,32%</t>
-  </si>
-  <si>
-    <t>86,29%</t>
+    <t>64,83%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -215,55 +215,49 @@
     <t>44,97%</t>
   </si>
   <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>65,94%</t>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>66,4%</t>
   </si>
   <si>
     <t>26,09%</t>
   </si>
   <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>49,11%</t>
+    <t>12,03%</t>
   </si>
   <si>
     <t>35,47%</t>
   </si>
   <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>51,12%</t>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>51,06%</t>
   </si>
   <si>
     <t>55,03%</t>
   </si>
   <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>74,88%</t>
   </si>
   <si>
     <t>73,91%</t>
   </si>
   <si>
-    <t>50,89%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
+    <t>87,97%</t>
   </si>
   <si>
     <t>64,53%</t>
   </si>
   <si>
-    <t>48,88%</t>
-  </si>
-  <si>
-    <t>76,68%</t>
+    <t>48,94%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -272,97 +266,103 @@
     <t>10,62%</t>
   </si>
   <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
   </si>
   <si>
     <t>4,3%</t>
   </si>
   <si>
-    <t>22,87%</t>
+    <t>20,53%</t>
   </si>
   <si>
     <t>8,01%</t>
   </si>
   <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
   </si>
   <si>
     <t>89,38%</t>
   </si>
   <si>
-    <t>75,72%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
+    <t>75,89%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
   </si>
   <si>
     <t>95,7%</t>
   </si>
   <si>
-    <t>77,13%</t>
+    <t>79,47%</t>
   </si>
   <si>
     <t>91,99%</t>
   </si>
   <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
   </si>
   <si>
     <t>32,09%</t>
   </si>
   <si>
-    <t>42,1%</t>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
   </si>
   <si>
     <t>10,11%</t>
   </si>
   <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
   </si>
   <si>
     <t>22,58%</t>
   </si>
   <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
   </si>
   <si>
     <t>67,91%</t>
   </si>
   <si>
-    <t>57,9%</t>
+    <t>58,91%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
   </si>
   <si>
     <t>89,89%</t>
   </si>
   <si>
-    <t>81,88%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
   </si>
   <si>
     <t>77,42%</t>
   </si>
   <si>
-    <t>71,08%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -371,13 +371,10 @@
     <t>Población que ha tenido un accidente en el trabajo en el último año en 2012 (Tasa respuesta: 7,9%)</t>
   </si>
   <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>46,34%</t>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>48,92%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -386,19 +383,16 @@
     <t>17,58%</t>
   </si>
   <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>75,89%</t>
-  </si>
-  <si>
-    <t>53,66%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>51,08%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
   </si>
   <si>
     <t>69,43%</t>
@@ -407,547 +401,547 @@
     <t>82,42%</t>
   </si>
   <si>
-    <t>64,21%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
+    <t>63,25%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
   </si>
   <si>
     <t>25,74%</t>
   </si>
   <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
   </si>
   <si>
     <t>5,87%</t>
   </si>
   <si>
-    <t>18,08%</t>
+    <t>22,39%</t>
   </si>
   <si>
     <t>15,42%</t>
   </si>
   <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
   </si>
   <si>
     <t>74,26%</t>
   </si>
   <si>
-    <t>58,74%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
+    <t>58,65%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
   </si>
   <si>
     <t>94,13%</t>
   </si>
   <si>
-    <t>81,92%</t>
+    <t>77,61%</t>
   </si>
   <si>
     <t>84,58%</t>
   </si>
   <si>
-    <t>75,32%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
+    <t>75,99%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
   </si>
   <si>
     <t>20,34%</t>
   </si>
   <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
   </si>
   <si>
     <t>4,2%</t>
   </si>
   <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
   </si>
   <si>
     <t>12,61%</t>
   </si>
   <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
   </si>
   <si>
     <t>79,66%</t>
   </si>
   <si>
-    <t>69,26%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
+    <t>68,46%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
   </si>
   <si>
     <t>95,8%</t>
   </si>
   <si>
-    <t>88,35%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
   </si>
   <si>
     <t>87,39%</t>
   </si>
   <si>
-    <t>81,29%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
+    <t>81,39%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
   </si>
   <si>
     <t>24,0%</t>
   </si>
   <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
   </si>
   <si>
     <t>9,31%</t>
   </si>
   <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
   </si>
   <si>
     <t>16,74%</t>
   </si>
   <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
   </si>
   <si>
     <t>76,0%</t>
   </si>
   <si>
-    <t>63,65%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
+    <t>63,66%</t>
+  </si>
+  <si>
+    <t>85,8%</t>
   </si>
   <si>
     <t>90,69%</t>
   </si>
   <si>
-    <t>77,49%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
   </si>
   <si>
     <t>83,26%</t>
   </si>
   <si>
-    <t>75,21%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
+    <t>74,56%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
   </si>
   <si>
     <t>18,94%</t>
   </si>
   <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
   </si>
   <si>
     <t>3,19%</t>
   </si>
   <si>
-    <t>10,24%</t>
+    <t>9,54%</t>
   </si>
   <si>
     <t>11,9%</t>
   </si>
   <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
   </si>
   <si>
     <t>81,06%</t>
   </si>
   <si>
-    <t>71,89%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
+    <t>69,99%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
   </si>
   <si>
     <t>96,81%</t>
   </si>
   <si>
-    <t>89,76%</t>
+    <t>90,46%</t>
   </si>
   <si>
     <t>88,1%</t>
   </si>
   <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
   </si>
   <si>
     <t>21,67%</t>
   </si>
   <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
   </si>
   <si>
     <t>5,26%</t>
   </si>
   <si>
-    <t>2,74%</t>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>78,33%</t>
+  </si>
+  <si>
+    <t>73,92%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>82,94%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>Población que ha tenido un accidente en el trabajo en el último año en 2015 (Tasa respuesta: 5,53%)</t>
+  </si>
+  <si>
+    <t>71,45%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>66,81%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>51,67%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>74,47%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>86,38%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
+  </si>
+  <si>
+    <t>68,4%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
   </si>
   <si>
     <t>9,02%</t>
   </si>
   <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>73,3%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>65,66%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
+  </si>
+  <si>
+    <t>63,43%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>72,16%</t>
   </si>
   <si>
     <t>90,98%</t>
   </si>
   <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>Población que ha tenido un accidente en el trabajo en el último año en 2015 (Tasa respuesta: 5,53%)</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>67,63%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>66,81%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>47,7%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>52,3%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>74,06%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>80,81%</t>
-  </si>
-  <si>
-    <t>69,2%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>66,91%</t>
-  </si>
-  <si>
-    <t>83,84%</t>
-  </si>
-  <si>
-    <t>66,6%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>71,05%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
     <t>11,39%</t>
   </si>
   <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
   </si>
   <si>
     <t>9,89%</t>
   </si>
   <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
   </si>
   <si>
     <t>10,63%</t>
   </si>
   <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
   </si>
   <si>
     <t>88,61%</t>
   </si>
   <si>
-    <t>78,11%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
+    <t>79,16%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
   </si>
   <si>
     <t>90,11%</t>
   </si>
   <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
+    <t>80,32%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
   </si>
   <si>
     <t>89,37%</t>
   </si>
   <si>
-    <t>82,65%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
   </si>
   <si>
     <t>14,94%</t>
   </si>
   <si>
-    <t>10,14%</t>
+    <t>20,69%</t>
   </si>
   <si>
     <t>7,37%</t>
   </si>
   <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
   </si>
   <si>
     <t>11,22%</t>
   </si>
   <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
   </si>
   <si>
     <t>85,06%</t>
   </si>
   <si>
-    <t>89,86%</t>
+    <t>79,31%</t>
   </si>
   <si>
     <t>92,63%</t>
   </si>
   <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
   </si>
   <si>
     <t>88,78%</t>
   </si>
   <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
+    <t>85,05%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
   </si>
   <si>
     <t>Población que ha tenido un accidente en el trabajo en el último año en 2023 (Tasa respuesta: 6,52%)</t>
@@ -956,7 +950,7 @@
     <t>47,18%</t>
   </si>
   <si>
-    <t>84,11%</t>
+    <t>85,68%</t>
   </si>
   <si>
     <t>10,53%</t>
@@ -965,13 +959,13 @@
     <t>20,87%</t>
   </si>
   <si>
-    <t>55,5%</t>
+    <t>54,59%</t>
   </si>
   <si>
     <t>52,82%</t>
   </si>
   <si>
-    <t>15,89%</t>
+    <t>14,32%</t>
   </si>
   <si>
     <t>89,47%</t>
@@ -980,253 +974,265 @@
     <t>79,13%</t>
   </si>
   <si>
-    <t>44,5%</t>
+    <t>45,41%</t>
   </si>
   <si>
     <t>29,17%</t>
   </si>
   <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>51,73%</t>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>51,27%</t>
   </si>
   <si>
     <t>6,91%</t>
   </si>
   <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
   </si>
   <si>
     <t>18,34%</t>
   </si>
   <si>
-    <t>31,44%</t>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
   </si>
   <si>
     <t>70,83%</t>
   </si>
   <si>
-    <t>48,27%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
+    <t>48,73%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
   </si>
   <si>
     <t>93,09%</t>
   </si>
   <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
   </si>
   <si>
     <t>81,66%</t>
   </si>
   <si>
-    <t>68,56%</t>
+    <t>68,1%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
   </si>
   <si>
     <t>23,23%</t>
   </si>
   <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>36,71%</t>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
   </si>
   <si>
     <t>8,0%</t>
   </si>
   <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
   </si>
   <si>
     <t>15,83%</t>
   </si>
   <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
   </si>
   <si>
     <t>76,77%</t>
   </si>
   <si>
-    <t>63,29%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
+    <t>64,11%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
   </si>
   <si>
     <t>92,0%</t>
   </si>
   <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
+    <t>80,59%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
   </si>
   <si>
     <t>84,17%</t>
   </si>
   <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
+    <t>75,66%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
   </si>
   <si>
     <t>23,86%</t>
   </si>
   <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
+    <t>42,99%</t>
   </si>
   <si>
     <t>3,42%</t>
   </si>
   <si>
-    <t>0,91%</t>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
   </si>
   <si>
     <t>11,24%</t>
   </si>
   <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
   </si>
   <si>
     <t>76,14%</t>
   </si>
   <si>
-    <t>57,45%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
+    <t>57,01%</t>
   </si>
   <si>
     <t>96,58%</t>
   </si>
   <si>
-    <t>99,09%</t>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
   </si>
   <si>
     <t>88,76%</t>
   </si>
   <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
+    <t>79,34%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
   </si>
   <si>
     <t>18,28%</t>
   </si>
   <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
   </si>
   <si>
     <t>10,58%</t>
   </si>
   <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
   </si>
   <si>
     <t>14,02%</t>
   </si>
   <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
   </si>
   <si>
     <t>81,72%</t>
   </si>
   <si>
-    <t>68,3%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
+    <t>67,71%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
   </si>
   <si>
     <t>89,42%</t>
   </si>
   <si>
-    <t>80,37%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
+    <t>80,82%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
   </si>
   <si>
     <t>85,98%</t>
   </si>
   <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
+    <t>79,27%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
   </si>
   <si>
     <t>23,74%</t>
   </si>
   <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
   </si>
   <si>
     <t>15,06%</t>
   </si>
   <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
   </si>
   <si>
     <t>76,26%</t>
   </si>
   <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
+    <t>69,58%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
   </si>
   <si>
     <t>84,94%</t>
   </si>
   <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
+    <t>80,52%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
   </si>
 </sst>
 </file>
@@ -1638,7 +1644,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{916A2D05-66B1-4615-A420-9C34FED019CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E8E4562-A1A6-4519-9E11-E5A07CEDE041}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2248,7 +2254,7 @@
         <v>61</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="M13" s="7">
         <v>16</v>
@@ -2257,13 +2263,13 @@
         <v>16998</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2278,13 +2284,13 @@
         <v>13100</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="H14" s="7">
         <v>18</v>
@@ -2293,13 +2299,13 @@
         <v>17822</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="M14" s="7">
         <v>31</v>
@@ -2308,13 +2314,13 @@
         <v>30922</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2370,7 +2376,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2382,13 +2388,13 @@
         <v>3579</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -2397,13 +2403,13 @@
         <v>1020</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -2412,13 +2418,13 @@
         <v>4599</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2433,13 +2439,13 @@
         <v>30131</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="H17" s="7">
         <v>21</v>
@@ -2448,10 +2454,10 @@
         <v>22669</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>13</v>
@@ -2463,13 +2469,13 @@
         <v>52800</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2537,13 +2543,13 @@
         <v>39493</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="H19" s="7">
         <v>9</v>
@@ -2552,13 +2558,13 @@
         <v>9488</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="M19" s="7">
         <v>47</v>
@@ -2567,13 +2573,13 @@
         <v>48980</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2588,13 +2594,13 @@
         <v>83584</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="H20" s="7">
         <v>81</v>
@@ -2701,7 +2707,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D96B6FD-3DD4-4C78-B815-918B8325AB1F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C704EB5-34B0-4DC6-B613-D4642707688F}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2825,13 +2831,13 @@
         <v>3833</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2846,7 +2852,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -2855,13 +2861,13 @@
         <v>3833</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2876,13 +2882,13 @@
         <v>12066</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -2894,7 +2900,7 @@
         <v>13</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>21</v>
@@ -2906,13 +2912,13 @@
         <v>17969</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2980,13 +2986,13 @@
         <v>11098</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -2995,13 +3001,13 @@
         <v>2733</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="M7" s="7">
         <v>13</v>
@@ -3010,13 +3016,13 @@
         <v>13832</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3031,13 +3037,13 @@
         <v>32025</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H8" s="7">
         <v>42</v>
@@ -3046,10 +3052,10 @@
         <v>43840</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>13</v>
@@ -3061,13 +3067,13 @@
         <v>75864</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3135,13 +3141,13 @@
         <v>16534</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -3150,13 +3156,13 @@
         <v>3134</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="M10" s="7">
         <v>19</v>
@@ -3165,13 +3171,13 @@
         <v>19668</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3186,13 +3192,13 @@
         <v>64755</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="H11" s="7">
         <v>67</v>
@@ -3201,13 +3207,13 @@
         <v>71489</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M11" s="7">
         <v>124</v>
@@ -3216,13 +3222,13 @@
         <v>136245</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3290,13 +3296,13 @@
         <v>14019</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -3305,13 +3311,13 @@
         <v>5309</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="M13" s="7">
         <v>18</v>
@@ -3320,13 +3326,13 @@
         <v>19328</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3341,13 +3347,13 @@
         <v>44389</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="H14" s="7">
         <v>49</v>
@@ -3356,13 +3362,13 @@
         <v>51736</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="M14" s="7">
         <v>92</v>
@@ -3371,13 +3377,13 @@
         <v>96125</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3433,7 +3439,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3445,13 +3451,13 @@
         <v>16711</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -3460,13 +3466,13 @@
         <v>2270</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="M16" s="7">
         <v>18</v>
@@ -3475,13 +3481,13 @@
         <v>18981</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3496,13 +3502,13 @@
         <v>71541</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="H17" s="7">
         <v>65</v>
@@ -3511,10 +3517,10 @@
         <v>68991</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>13</v>
@@ -3526,13 +3532,13 @@
         <v>140533</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3600,13 +3606,13 @@
         <v>62196</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="H19" s="7">
         <v>11</v>
@@ -3615,13 +3621,13 @@
         <v>13446</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="M19" s="7">
         <v>73</v>
@@ -3630,13 +3636,13 @@
         <v>75642</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3651,13 +3657,13 @@
         <v>224776</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="H20" s="7">
         <v>228</v>
@@ -3666,13 +3672,13 @@
         <v>241959</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="M20" s="7">
         <v>441</v>
@@ -3681,13 +3687,13 @@
         <v>466735</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3764,7 +3770,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA1FD52E-7A8F-47BC-956F-4B0477250533}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB5988CB-A8AD-4DC7-A9D2-84C335DB9F6B}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3781,7 +3787,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3888,13 +3894,13 @@
         <v>993</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>211</v>
+        <v>181</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -3903,13 +3909,13 @@
         <v>1061</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -3918,13 +3924,13 @@
         <v>2054</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3939,10 +3945,10 @@
         <v>4528</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>217</v>
+        <v>188</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>13</v>
@@ -3954,10 +3960,10 @@
         <v>5208</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>13</v>
@@ -3969,10 +3975,10 @@
         <v>9736</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>13</v>
@@ -4043,13 +4049,13 @@
         <v>3943</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -4058,13 +4064,13 @@
         <v>1762</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
@@ -4073,13 +4079,13 @@
         <v>5705</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4094,13 +4100,13 @@
         <v>30279</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="H8" s="7">
         <v>39</v>
@@ -4109,10 +4115,10 @@
         <v>40645</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>13</v>
@@ -4124,13 +4130,13 @@
         <v>70923</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4198,13 +4204,13 @@
         <v>11602</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4219,7 +4225,7 @@
         <v>14</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
@@ -4228,13 +4234,13 @@
         <v>11602</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4249,13 +4255,13 @@
         <v>48873</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H11" s="7">
         <v>44</v>
@@ -4267,7 +4273,7 @@
         <v>13</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>21</v>
@@ -4279,13 +4285,13 @@
         <v>97472</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4353,13 +4359,13 @@
         <v>6069</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -4368,13 +4374,13 @@
         <v>5100</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M13" s="7">
         <v>10</v>
@@ -4383,13 +4389,13 @@
         <v>11169</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4404,13 +4410,13 @@
         <v>30597</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="H14" s="7">
         <v>23</v>
@@ -4419,13 +4425,13 @@
         <v>26461</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="M14" s="7">
         <v>52</v>
@@ -4434,13 +4440,13 @@
         <v>57058</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4496,7 +4502,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4508,13 +4514,13 @@
         <v>6935</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -4523,13 +4529,13 @@
         <v>6195</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="M16" s="7">
         <v>13</v>
@@ -4538,13 +4544,13 @@
         <v>13130</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4559,13 +4565,13 @@
         <v>53951</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="H17" s="7">
         <v>48</v>
@@ -4574,13 +4580,13 @@
         <v>56423</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="M17" s="7">
         <v>100</v>
@@ -4589,13 +4595,13 @@
         <v>110374</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4663,13 +4669,13 @@
         <v>29542</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>288</v>
+        <v>239</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>140</v>
+        <v>286</v>
       </c>
       <c r="H19" s="7">
         <v>14</v>
@@ -4678,13 +4684,13 @@
         <v>14118</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="M19" s="7">
         <v>42</v>
@@ -4693,13 +4699,13 @@
         <v>43660</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4714,13 +4720,13 @@
         <v>168227</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>149</v>
+        <v>294</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>296</v>
+        <v>246</v>
       </c>
       <c r="H20" s="7">
         <v>158</v>
@@ -4729,13 +4735,13 @@
         <v>177335</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="M20" s="7">
         <v>321</v>
@@ -4744,13 +4750,13 @@
         <v>345563</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4827,7 +4833,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFDD5D3C-2D80-4059-BF74-9DAA0AEB7F0B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F00303F9-D06F-499D-855D-900E0B18B8A9}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4844,7 +4850,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4951,13 +4957,13 @@
         <v>2838</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4972,7 +4978,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -4981,13 +4987,13 @@
         <v>2838</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5002,10 +5008,10 @@
         <v>3178</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>13</v>
@@ -5020,7 +5026,7 @@
         <v>13</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>21</v>
@@ -5032,10 +5038,10 @@
         <v>10758</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>13</v>
@@ -5106,13 +5112,13 @@
         <v>11845</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>316</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -5121,13 +5127,13 @@
         <v>2656</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>319</v>
       </c>
       <c r="M7" s="7">
         <v>14</v>
@@ -5136,13 +5142,13 @@
         <v>14501</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5157,13 +5163,13 @@
         <v>28757</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>324</v>
       </c>
       <c r="H8" s="7">
         <v>70</v>
@@ -5172,13 +5178,13 @@
         <v>35796</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>327</v>
       </c>
       <c r="M8" s="7">
         <v>107</v>
@@ -5187,13 +5193,13 @@
         <v>64554</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5419,10 +5425,10 @@
         <v>348</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>350</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -5431,13 +5437,13 @@
         <v>1644</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>337</v>
       </c>
       <c r="M13" s="7">
         <v>9</v>
@@ -5473,7 +5479,7 @@
         <v>357</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>358</v>
+        <v>329</v>
       </c>
       <c r="H14" s="7">
         <v>66</v>
@@ -5482,10 +5488,10 @@
         <v>46432</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>347</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>360</v>
@@ -5559,7 +5565,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5732,7 +5738,7 @@
         <v>383</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>321</v>
+        <v>384</v>
       </c>
       <c r="H19" s="7">
         <v>22</v>
@@ -5741,13 +5747,13 @@
         <v>17291</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M19" s="7">
         <v>63</v>
@@ -5756,13 +5762,13 @@
         <v>65666</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5777,13 +5783,13 @@
         <v>155408</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>329</v>
+        <v>391</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="H20" s="7">
         <v>337</v>
@@ -5792,13 +5798,13 @@
         <v>214986</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="M20" s="7">
         <v>507</v>
@@ -5807,13 +5813,13 @@
         <v>370393</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P15B_3_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P15B_3_R-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7EE0C5DF-1746-475D-9CCB-9C8B45A6D7CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6CCEC09C-F6AD-46D2-9E9B-CE77F5177ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{19FE6769-8825-4783-A9BD-EAAF6EFEFC75}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F8A02F60-7F67-40C6-B863-0A3BA59AAE67}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -92,7 +92,7 @@
     <t>45,33%</t>
   </si>
   <si>
-    <t>87,44%</t>
+    <t>88,83%</t>
   </si>
   <si>
     <t>No</t>
@@ -110,19 +110,19 @@
     <t>54,67%</t>
   </si>
   <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>2/10</t>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>37,99%</t>
   </si>
   <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>60,87%</t>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>60,96%</t>
   </si>
   <si>
     <t>13,49%</t>
@@ -131,19 +131,19 @@
     <t>22,24%</t>
   </si>
   <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>42,29%</t>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
   </si>
   <si>
     <t>62,01%</t>
   </si>
   <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>83,48%</t>
   </si>
   <si>
     <t>86,51%</t>
@@ -152,112 +152,118 @@
     <t>77,76%</t>
   </si>
   <si>
-    <t>57,71%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>61,45%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>35,15%</t>
   </si>
   <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>51,61%</t>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>52,68%</t>
   </si>
   <si>
     <t>7,22%</t>
   </si>
   <si>
-    <t>24,13%</t>
+    <t>25,62%</t>
   </si>
   <si>
     <t>23,61%</t>
   </si>
   <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
   </si>
   <si>
     <t>64,85%</t>
   </si>
   <si>
-    <t>48,39%</t>
-  </si>
-  <si>
-    <t>78,83%</t>
+    <t>47,32%</t>
+  </si>
+  <si>
+    <t>78,3%</t>
   </si>
   <si>
     <t>92,78%</t>
   </si>
   <si>
-    <t>75,87%</t>
+    <t>74,38%</t>
   </si>
   <si>
     <t>76,39%</t>
   </si>
   <si>
-    <t>64,83%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>64,95%</t>
+  </si>
+  <si>
+    <t>85,99%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>44,97%</t>
   </si>
   <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>66,4%</t>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>64,68%</t>
   </si>
   <si>
     <t>26,09%</t>
   </si>
   <si>
-    <t>12,03%</t>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>48,45%</t>
   </si>
   <si>
     <t>35,47%</t>
   </si>
   <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>51,06%</t>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>49,06%</t>
   </si>
   <si>
     <t>55,03%</t>
   </si>
   <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>74,88%</t>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>75,42%</t>
   </si>
   <si>
     <t>73,91%</t>
   </si>
   <si>
-    <t>87,97%</t>
+    <t>51,55%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
   </si>
   <si>
     <t>64,53%</t>
   </si>
   <si>
-    <t>48,94%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
+    <t>50,94%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -266,133 +272,136 @@
     <t>10,62%</t>
   </si>
   <si>
-    <t>2,62%</t>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>77,66%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>67,91%</t>
+  </si>
+  <si>
+    <t>59,38%</t>
+  </si>
+  <si>
+    <t>76,63%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>77,42%</t>
+  </si>
+  <si>
+    <t>70,85%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha tenido un accidente en el trabajo en el último año en 2012 (Tasa respuesta: 7,9%)</t>
   </si>
   <si>
     <t>24,11%</t>
   </si>
   <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>48,36%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
   </si>
   <si>
     <t>75,89%</t>
   </si>
   <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>67,91%</t>
-  </si>
-  <si>
-    <t>58,91%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>77,42%</t>
-  </si>
-  <si>
-    <t>71,67%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha tenido un accidente en el trabajo en el último año en 2012 (Tasa respuesta: 7,9%)</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>48,92%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>51,08%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
+    <t>51,64%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
   </si>
   <si>
     <t>69,43%</t>
@@ -401,547 +410,538 @@
     <t>82,42%</t>
   </si>
   <si>
-    <t>63,25%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
+    <t>93,56%</t>
   </si>
   <si>
     <t>25,74%</t>
   </si>
   <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>41,35%</t>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
   </si>
   <si>
     <t>5,87%</t>
   </si>
   <si>
-    <t>22,39%</t>
+    <t>19,49%</t>
   </si>
   <si>
     <t>15,42%</t>
   </si>
   <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
   </si>
   <si>
     <t>74,26%</t>
   </si>
   <si>
-    <t>58,65%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
+    <t>58,39%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
   </si>
   <si>
     <t>94,13%</t>
   </si>
   <si>
-    <t>77,61%</t>
+    <t>80,51%</t>
   </si>
   <si>
     <t>84,58%</t>
   </si>
   <si>
-    <t>75,99%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
   </si>
   <si>
     <t>20,34%</t>
   </si>
   <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
   </si>
   <si>
     <t>4,2%</t>
   </si>
   <si>
-    <t>1,28%</t>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>69,02%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>76,0%</t>
+  </si>
+  <si>
+    <t>63,37%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>70,86%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
   </si>
   <si>
     <t>11,0%</t>
   </si>
   <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>68,46%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>78,33%</t>
+  </si>
+  <si>
+    <t>73,35%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
   </si>
   <si>
     <t>89,0%</t>
   </si>
   <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>81,39%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
+    <t>Población que ha tenido un accidente en el trabajo en el último año en 2016 (Tasa respuesta: 5,53%)</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>68,73%</t>
+  </si>
+  <si>
+    <t>69,92%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>48,01%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>51,99%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>73,82%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
+  </si>
+  <si>
+    <t>67,46%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>68,27%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
+  </si>
+  <si>
+    <t>66,88%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>71,62%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
   </si>
   <si>
     <t>21,79%</t>
   </si>
   <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>76,0%</t>
-  </si>
-  <si>
-    <t>63,66%</t>
-  </si>
-  <si>
-    <t>85,8%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
   </si>
   <si>
     <t>78,21%</t>
   </si>
   <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>74,56%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>81,06%</t>
-  </si>
-  <si>
-    <t>69,99%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>73,92%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>Población que ha tenido un accidente en el trabajo en el último año en 2015 (Tasa respuesta: 5,53%)</t>
-  </si>
-  <si>
-    <t>71,45%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>66,81%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>48,33%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>51,67%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>74,47%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>80,81%</t>
-  </si>
-  <si>
-    <t>68,4%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>81,48%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>65,66%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>83,84%</t>
-  </si>
-  <si>
-    <t>63,43%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>72,16%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>79,16%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
+    <t>94,94%</t>
   </si>
   <si>
     <t>90,11%</t>
   </si>
   <si>
-    <t>80,32%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
+    <t>79,91%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
   </si>
   <si>
     <t>89,37%</t>
   </si>
   <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
+    <t>93,78%</t>
   </si>
   <si>
     <t>14,94%</t>
   </si>
   <si>
-    <t>20,69%</t>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
   </si>
   <si>
     <t>7,37%</t>
   </si>
   <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
   </si>
   <si>
     <t>11,22%</t>
   </si>
   <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
   </si>
   <si>
     <t>85,06%</t>
   </si>
   <si>
-    <t>79,31%</t>
+    <t>79,4%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
   </si>
   <si>
     <t>92,63%</t>
   </si>
   <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
   </si>
   <si>
     <t>88,78%</t>
   </si>
   <si>
-    <t>85,05%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
   </si>
   <si>
     <t>Población que ha tenido un accidente en el trabajo en el último año en 2023 (Tasa respuesta: 6,52%)</t>
@@ -1644,7 +1644,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E8E4562-A1A6-4519-9E11-E5A07CEDE041}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F936B5B-FF2F-4614-9CB4-0D39170E6EA9}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2254,7 +2254,7 @@
         <v>61</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="M13" s="7">
         <v>16</v>
@@ -2263,13 +2263,13 @@
         <v>16998</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2284,13 +2284,13 @@
         <v>13100</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H14" s="7">
         <v>18</v>
@@ -2299,13 +2299,13 @@
         <v>17822</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M14" s="7">
         <v>31</v>
@@ -2314,13 +2314,13 @@
         <v>30922</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2376,7 +2376,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2388,13 +2388,13 @@
         <v>3579</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -2403,13 +2403,13 @@
         <v>1020</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -2418,13 +2418,13 @@
         <v>4599</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2439,13 +2439,13 @@
         <v>30131</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H17" s="7">
         <v>21</v>
@@ -2454,10 +2454,10 @@
         <v>22669</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>13</v>
@@ -2469,13 +2469,13 @@
         <v>52800</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2543,13 +2543,13 @@
         <v>39493</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H19" s="7">
         <v>9</v>
@@ -2558,13 +2558,13 @@
         <v>9488</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M19" s="7">
         <v>47</v>
@@ -2573,13 +2573,13 @@
         <v>48980</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2594,13 +2594,13 @@
         <v>83584</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H20" s="7">
         <v>81</v>
@@ -2609,13 +2609,13 @@
         <v>84318</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M20" s="7">
         <v>162</v>
@@ -2624,13 +2624,13 @@
         <v>167903</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2686,7 +2686,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -2707,7 +2707,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C704EB5-34B0-4DC6-B613-D4642707688F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39088004-B227-4ED2-A56B-27645634C309}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2724,7 +2724,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2831,13 +2831,13 @@
         <v>3833</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2852,7 +2852,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -2861,13 +2861,13 @@
         <v>3833</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>115</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2882,13 +2882,13 @@
         <v>12066</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -2900,7 +2900,7 @@
         <v>13</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>21</v>
@@ -2912,13 +2912,13 @@
         <v>17969</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2986,13 +2986,13 @@
         <v>11098</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -3001,13 +3001,13 @@
         <v>2733</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M7" s="7">
         <v>13</v>
@@ -3016,13 +3016,13 @@
         <v>13832</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3037,13 +3037,13 @@
         <v>32025</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H8" s="7">
         <v>42</v>
@@ -3052,10 +3052,10 @@
         <v>43840</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>13</v>
@@ -3067,13 +3067,13 @@
         <v>75864</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3141,13 +3141,13 @@
         <v>16534</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -3156,13 +3156,13 @@
         <v>3134</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M10" s="7">
         <v>19</v>
@@ -3171,13 +3171,13 @@
         <v>19668</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3192,13 +3192,13 @@
         <v>64755</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H11" s="7">
         <v>67</v>
@@ -3207,13 +3207,13 @@
         <v>71489</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M11" s="7">
         <v>124</v>
@@ -3222,13 +3222,13 @@
         <v>136245</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3296,13 +3296,13 @@
         <v>14019</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -3311,13 +3311,13 @@
         <v>5309</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M13" s="7">
         <v>18</v>
@@ -3326,13 +3326,13 @@
         <v>19328</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3347,13 +3347,13 @@
         <v>44389</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H14" s="7">
         <v>49</v>
@@ -3362,13 +3362,13 @@
         <v>51736</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M14" s="7">
         <v>92</v>
@@ -3377,13 +3377,13 @@
         <v>96125</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3439,7 +3439,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3451,13 +3451,13 @@
         <v>16711</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -3466,13 +3466,13 @@
         <v>2270</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M16" s="7">
         <v>18</v>
@@ -3481,13 +3481,13 @@
         <v>18981</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3502,13 +3502,13 @@
         <v>71541</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H17" s="7">
         <v>65</v>
@@ -3517,10 +3517,10 @@
         <v>68991</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>13</v>
@@ -3532,13 +3532,13 @@
         <v>140533</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3606,13 +3606,13 @@
         <v>62196</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H19" s="7">
         <v>11</v>
@@ -3621,13 +3621,13 @@
         <v>13446</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="M19" s="7">
         <v>73</v>
@@ -3636,13 +3636,13 @@
         <v>75642</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3657,13 +3657,13 @@
         <v>224776</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="H20" s="7">
         <v>228</v>
@@ -3672,13 +3672,13 @@
         <v>241959</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M20" s="7">
         <v>441</v>
@@ -3687,13 +3687,13 @@
         <v>466735</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3749,7 +3749,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -3770,7 +3770,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB5988CB-A8AD-4DC7-A9D2-84C335DB9F6B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E070193D-01D8-467E-942F-A48ECE6A3186}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3787,7 +3787,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3894,13 +3894,13 @@
         <v>993</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>181</v>
+        <v>211</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -3909,13 +3909,13 @@
         <v>1061</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>210</v>
+        <v>99</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -3924,13 +3924,13 @@
         <v>2054</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3945,10 +3945,10 @@
         <v>4528</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>188</v>
+        <v>216</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>13</v>
@@ -3960,10 +3960,10 @@
         <v>5208</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>215</v>
+        <v>109</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>13</v>
@@ -3975,10 +3975,10 @@
         <v>9736</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>13</v>
@@ -4049,13 +4049,13 @@
         <v>3943</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>220</v>
+        <v>82</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -4064,13 +4064,13 @@
         <v>1762</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
@@ -4079,13 +4079,13 @@
         <v>5705</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4100,13 +4100,13 @@
         <v>30279</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>229</v>
+        <v>91</v>
       </c>
       <c r="H8" s="7">
         <v>39</v>
@@ -4502,7 +4502,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4550,7 +4550,7 @@
         <v>274</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>275</v>
+        <v>214</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4565,13 +4565,13 @@
         <v>53951</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="H17" s="7">
         <v>48</v>
@@ -4580,13 +4580,13 @@
         <v>56423</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="M17" s="7">
         <v>100</v>
@@ -4595,13 +4595,13 @@
         <v>110374</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4669,13 +4669,13 @@
         <v>29542</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>286</v>
       </c>
       <c r="H19" s="7">
         <v>14</v>
@@ -4684,13 +4684,13 @@
         <v>14118</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="M19" s="7">
         <v>42</v>
@@ -4699,13 +4699,13 @@
         <v>43660</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4720,13 +4720,13 @@
         <v>168227</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="H20" s="7">
         <v>158</v>
@@ -4812,7 +4812,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -4833,7 +4833,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F00303F9-D06F-499D-855D-900E0B18B8A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5675EF5C-9E86-4414-AEE8-F3EFFFD6200C}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5565,7 +5565,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5747,7 +5747,7 @@
         <v>17291</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>385</v>
@@ -5875,7 +5875,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P15B_3_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P15B_3_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6CCEC09C-F6AD-46D2-9E9B-CE77F5177ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{57B991B4-DB2F-4A5F-B1F8-8D037E19FD4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F8A02F60-7F67-40C6-B863-0A3BA59AAE67}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C2FDEDAB-6D93-48EE-A26D-47A6326560D7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="396">
   <si>
     <t>Población que ha tenido un accidente en el trabajo en el último año en 2007 (Tasa respuesta: 3,21%)</t>
   </si>
@@ -92,7 +92,7 @@
     <t>45,33%</t>
   </si>
   <si>
-    <t>88,83%</t>
+    <t>87,5%</t>
   </si>
   <si>
     <t>No</t>
@@ -110,7 +110,7 @@
     <t>54,67%</t>
   </si>
   <si>
-    <t>11,17%</t>
+    <t>12,5%</t>
   </si>
   <si>
     <t>2-10.000 hab</t>
@@ -119,10 +119,10 @@
     <t>37,99%</t>
   </si>
   <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>60,96%</t>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>61,45%</t>
   </si>
   <si>
     <t>13,49%</t>
@@ -131,19 +131,19 @@
     <t>22,24%</t>
   </si>
   <si>
-    <t>9,71%</t>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>62,01%</t>
   </si>
   <si>
     <t>38,55%</t>
   </si>
   <si>
-    <t>62,01%</t>
-  </si>
-  <si>
-    <t>39,04%</t>
-  </si>
-  <si>
-    <t>83,48%</t>
+    <t>81,63%</t>
   </si>
   <si>
     <t>86,51%</t>
@@ -152,10 +152,10 @@
     <t>77,76%</t>
   </si>
   <si>
-    <t>61,45%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
+    <t>59,06%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -164,49 +164,49 @@
     <t>35,15%</t>
   </si>
   <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>52,68%</t>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>50,81%</t>
   </si>
   <si>
     <t>7,22%</t>
   </si>
   <si>
-    <t>25,62%</t>
+    <t>24,98%</t>
   </si>
   <si>
     <t>23,61%</t>
   </si>
   <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
   </si>
   <si>
     <t>64,85%</t>
   </si>
   <si>
-    <t>47,32%</t>
-  </si>
-  <si>
-    <t>78,3%</t>
+    <t>49,19%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
   </si>
   <si>
     <t>92,78%</t>
   </si>
   <si>
-    <t>74,38%</t>
+    <t>75,02%</t>
   </si>
   <si>
     <t>76,39%</t>
   </si>
   <si>
-    <t>64,95%</t>
-  </si>
-  <si>
-    <t>85,99%</t>
+    <t>65,32%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
   </si>
   <si>
     <t>&gt;50.000hab</t>
@@ -215,55 +215,55 @@
     <t>44,97%</t>
   </si>
   <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>64,68%</t>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>65,94%</t>
   </si>
   <si>
     <t>26,09%</t>
   </si>
   <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>48,45%</t>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>49,11%</t>
   </si>
   <si>
     <t>35,47%</t>
   </si>
   <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>49,06%</t>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>51,12%</t>
   </si>
   <si>
     <t>55,03%</t>
   </si>
   <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>75,42%</t>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
   </si>
   <si>
     <t>73,91%</t>
   </si>
   <si>
-    <t>51,55%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
+    <t>50,89%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
   </si>
   <si>
     <t>64,53%</t>
   </si>
   <si>
-    <t>50,94%</t>
-  </si>
-  <si>
-    <t>77,7%</t>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>76,68%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -272,487 +272,499 @@
     <t>10,62%</t>
   </si>
   <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
   </si>
   <si>
     <t>4,3%</t>
   </si>
   <si>
-    <t>22,34%</t>
+    <t>22,87%</t>
   </si>
   <si>
     <t>8,01%</t>
   </si>
   <si>
-    <t>2,96%</t>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>75,72%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>77,13%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>42,1%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
   </si>
   <si>
     <t>17,34%</t>
   </si>
   <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>76,61%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>77,66%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>67,91%</t>
+  </si>
+  <si>
+    <t>57,9%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>77,42%</t>
+  </si>
+  <si>
+    <t>71,08%</t>
   </si>
   <si>
     <t>82,66%</t>
   </si>
   <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha tenido un accidente en el trabajo en el último año en 2012 (Tasa respuesta: 7,9%)</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>46,34%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>75,89%</t>
+  </si>
+  <si>
+    <t>53,66%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>82,42%</t>
+  </si>
+  <si>
+    <t>64,21%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>74,26%</t>
+  </si>
+  <si>
+    <t>58,74%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>84,58%</t>
+  </si>
+  <si>
+    <t>75,32%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>69,26%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>88,35%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>76,0%</t>
+  </si>
+  <si>
+    <t>63,65%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>77,49%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>75,21%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>71,89%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>78,33%</t>
+  </si>
+  <si>
+    <t>73,3%</t>
+  </si>
+  <si>
+    <t>82,96%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>82,88%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>Población que ha tenido un accidente en el trabajo en el último año en 2016 (Tasa respuesta: 5,53%)</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>67,63%</t>
   </si>
   <si>
     <t>16,93%</t>
   </si>
   <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>67,91%</t>
-  </si>
-  <si>
-    <t>59,38%</t>
-  </si>
-  <si>
-    <t>76,63%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>77,42%</t>
-  </si>
-  <si>
-    <t>70,85%</t>
+    <t>66,81%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
   </si>
   <si>
     <t>83,07%</t>
   </si>
   <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha tenido un accidente en el trabajo en el último año en 2012 (Tasa respuesta: 7,9%)</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>48,36%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>75,89%</t>
-  </si>
-  <si>
-    <t>51,64%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>74,26%</t>
-  </si>
-  <si>
-    <t>58,39%</t>
-  </si>
-  <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>80,51%</t>
-  </si>
-  <si>
-    <t>84,58%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>69,02%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>81,57%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>76,0%</t>
-  </si>
-  <si>
-    <t>63,37%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>77,92%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>75,57%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>81,06%</t>
-  </si>
-  <si>
-    <t>70,86%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>82,5%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>73,35%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>Población que ha tenido un accidente en el trabajo en el último año en 2016 (Tasa respuesta: 5,53%)</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>68,73%</t>
-  </si>
-  <si>
-    <t>69,92%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>48,01%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
+    <t>33,19%</t>
   </si>
   <si>
     <t>82,58%</t>
   </si>
   <si>
-    <t>51,99%</t>
+    <t>52,3%</t>
   </si>
   <si>
     <t>11,52%</t>
   </si>
   <si>
-    <t>26,18%</t>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
   </si>
   <si>
     <t>4,15%</t>
   </si>
   <si>
-    <t>12,92%</t>
+    <t>13,18%</t>
   </si>
   <si>
     <t>7,44%</t>
   </si>
   <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
   </si>
   <si>
     <t>88,48%</t>
   </si>
   <si>
-    <t>73,82%</t>
+    <t>74,06%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
   </si>
   <si>
     <t>95,85%</t>
   </si>
   <si>
-    <t>87,08%</t>
+    <t>86,82%</t>
   </si>
   <si>
     <t>92,56%</t>
   </si>
   <si>
-    <t>85,26%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
   </si>
   <si>
     <t>19,19%</t>
   </si>
   <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
   </si>
   <si>
     <t>4,25%</t>
@@ -761,19 +773,19 @@
     <t>10,64%</t>
   </si>
   <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
   </si>
   <si>
     <t>80,81%</t>
   </si>
   <si>
-    <t>67,46%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
+    <t>69,2%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
   </si>
   <si>
     <t>95,75%</t>
@@ -782,166 +794,160 @@
     <t>89,36%</t>
   </si>
   <si>
-    <t>82,67%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
   </si>
   <si>
     <t>16,55%</t>
   </si>
   <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
+    <t>33,09%</t>
   </si>
   <si>
     <t>16,16%</t>
   </si>
   <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
   </si>
   <si>
     <t>16,37%</t>
   </si>
   <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
   </si>
   <si>
     <t>83,45%</t>
   </si>
   <si>
-    <t>68,27%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
+    <t>66,91%</t>
   </si>
   <si>
     <t>83,84%</t>
   </si>
   <si>
-    <t>66,88%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
+    <t>66,6%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
   </si>
   <si>
     <t>83,63%</t>
   </si>
   <si>
-    <t>71,62%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
+    <t>71,05%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
   </si>
   <si>
     <t>11,39%</t>
   </si>
   <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
   </si>
   <si>
     <t>9,89%</t>
   </si>
   <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
   </si>
   <si>
     <t>10,63%</t>
   </si>
   <si>
-    <t>6,22%</t>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
   </si>
   <si>
     <t>88,61%</t>
   </si>
   <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
+    <t>78,11%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
   </si>
   <si>
     <t>90,11%</t>
   </si>
   <si>
-    <t>79,91%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
+    <t>79,87%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
   </si>
   <si>
     <t>89,37%</t>
   </si>
   <si>
-    <t>93,78%</t>
+    <t>82,65%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
   </si>
   <si>
     <t>14,94%</t>
   </si>
   <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
+    <t>10,14%</t>
   </si>
   <si>
     <t>7,37%</t>
   </si>
   <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
   </si>
   <si>
     <t>11,22%</t>
   </si>
   <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
   </si>
   <si>
     <t>85,06%</t>
   </si>
   <si>
-    <t>79,4%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
+    <t>89,86%</t>
   </si>
   <si>
     <t>92,63%</t>
   </si>
   <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
+    <t>88,09%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
   </si>
   <si>
     <t>88,78%</t>
   </si>
   <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
   </si>
   <si>
     <t>Población que ha tenido un accidente en el trabajo en el último año en 2023 (Tasa respuesta: 6,52%)</t>
@@ -950,7 +956,7 @@
     <t>47,18%</t>
   </si>
   <si>
-    <t>85,68%</t>
+    <t>84,11%</t>
   </si>
   <si>
     <t>10,53%</t>
@@ -959,13 +965,13 @@
     <t>20,87%</t>
   </si>
   <si>
-    <t>54,59%</t>
+    <t>55,5%</t>
   </si>
   <si>
     <t>52,82%</t>
   </si>
   <si>
-    <t>14,32%</t>
+    <t>15,89%</t>
   </si>
   <si>
     <t>89,47%</t>
@@ -974,265 +980,253 @@
     <t>79,13%</t>
   </si>
   <si>
-    <t>45,41%</t>
+    <t>44,5%</t>
   </si>
   <si>
     <t>29,17%</t>
   </si>
   <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>51,27%</t>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>51,73%</t>
   </si>
   <si>
     <t>6,91%</t>
   </si>
   <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
   </si>
   <si>
     <t>18,34%</t>
   </si>
   <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
+    <t>31,44%</t>
   </si>
   <si>
     <t>70,83%</t>
   </si>
   <si>
-    <t>48,73%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
+    <t>48,27%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
   </si>
   <si>
     <t>93,09%</t>
   </si>
   <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
   </si>
   <si>
     <t>81,66%</t>
   </si>
   <si>
-    <t>68,1%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
+    <t>68,56%</t>
   </si>
   <si>
     <t>23,23%</t>
   </si>
   <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
   </si>
   <si>
     <t>8,0%</t>
   </si>
   <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
   </si>
   <si>
     <t>15,83%</t>
   </si>
   <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
   </si>
   <si>
     <t>76,77%</t>
   </si>
   <si>
-    <t>64,11%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
+    <t>63,29%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
   </si>
   <si>
     <t>92,0%</t>
   </si>
   <si>
-    <t>80,59%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
   </si>
   <si>
     <t>84,17%</t>
   </si>
   <si>
-    <t>75,66%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
   </si>
   <si>
     <t>23,86%</t>
   </si>
   <si>
-    <t>42,99%</t>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
   </si>
   <si>
     <t>3,42%</t>
   </si>
   <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
+    <t>0,91%</t>
   </si>
   <si>
     <t>11,24%</t>
   </si>
   <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
   </si>
   <si>
     <t>76,14%</t>
   </si>
   <si>
-    <t>57,01%</t>
+    <t>57,45%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
   </si>
   <si>
     <t>96,58%</t>
   </si>
   <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
+    <t>99,09%</t>
   </si>
   <si>
     <t>88,76%</t>
   </si>
   <si>
-    <t>79,34%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
   </si>
   <si>
     <t>18,28%</t>
   </si>
   <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
   </si>
   <si>
     <t>10,58%</t>
   </si>
   <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
   </si>
   <si>
     <t>14,02%</t>
   </si>
   <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
   </si>
   <si>
     <t>81,72%</t>
   </si>
   <si>
-    <t>67,71%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
+    <t>68,3%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
   </si>
   <si>
     <t>89,42%</t>
   </si>
   <si>
-    <t>80,82%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
+    <t>80,37%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
   </si>
   <si>
     <t>85,98%</t>
   </si>
   <si>
-    <t>79,27%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
   </si>
   <si>
     <t>23,74%</t>
   </si>
   <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
   </si>
   <si>
     <t>15,06%</t>
   </si>
   <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
   </si>
   <si>
     <t>76,26%</t>
   </si>
   <si>
-    <t>69,58%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
   </si>
   <si>
     <t>84,94%</t>
   </si>
   <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
+    <t>80,57%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
   </si>
 </sst>
 </file>
@@ -1644,7 +1638,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F936B5B-FF2F-4614-9CB4-0D39170E6EA9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B27FD391-5EC2-4E42-A33E-E66AC37C87FF}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2546,10 +2540,10 @@
         <v>92</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="H19" s="7">
         <v>9</v>
@@ -2558,13 +2552,13 @@
         <v>9488</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="M19" s="7">
         <v>47</v>
@@ -2573,13 +2567,13 @@
         <v>48980</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2594,13 +2588,13 @@
         <v>83584</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>102</v>
-      </c>
       <c r="G20" s="7" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="H20" s="7">
         <v>81</v>
@@ -2609,13 +2603,13 @@
         <v>84318</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="M20" s="7">
         <v>162</v>
@@ -2624,13 +2618,13 @@
         <v>167903</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2686,7 +2680,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -2707,7 +2701,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39088004-B227-4ED2-A56B-27645634C309}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34D8A1A5-426D-4B76-917F-2983B8B976BF}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2724,7 +2718,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2831,13 +2825,13 @@
         <v>3833</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2852,7 +2846,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -2861,13 +2855,13 @@
         <v>3833</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2882,13 +2876,13 @@
         <v>12066</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -2900,7 +2894,7 @@
         <v>13</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>21</v>
@@ -2912,10 +2906,10 @@
         <v>17969</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>123</v>
@@ -3749,7 +3743,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -3770,7 +3764,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E070193D-01D8-467E-942F-A48ECE6A3186}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76161D8F-124C-49A9-9B5F-389C0DA9105C}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3909,13 +3903,13 @@
         <v>1061</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>99</v>
+        <v>213</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -3924,13 +3918,13 @@
         <v>2054</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3945,10 +3939,10 @@
         <v>4528</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>13</v>
@@ -3960,10 +3954,10 @@
         <v>5208</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>109</v>
+        <v>219</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>13</v>
@@ -3975,10 +3969,10 @@
         <v>9736</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>13</v>
@@ -4049,13 +4043,13 @@
         <v>3943</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>82</v>
+        <v>224</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -4064,13 +4058,13 @@
         <v>1762</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
@@ -4079,13 +4073,13 @@
         <v>5705</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4100,13 +4094,13 @@
         <v>30279</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>91</v>
+        <v>233</v>
       </c>
       <c r="H8" s="7">
         <v>39</v>
@@ -4115,10 +4109,10 @@
         <v>40645</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>13</v>
@@ -4130,13 +4124,13 @@
         <v>70923</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4204,13 +4198,13 @@
         <v>11602</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4225,7 +4219,7 @@
         <v>14</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
@@ -4234,13 +4228,13 @@
         <v>11602</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4255,13 +4249,13 @@
         <v>48873</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="H11" s="7">
         <v>44</v>
@@ -4273,7 +4267,7 @@
         <v>13</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>21</v>
@@ -4285,13 +4279,13 @@
         <v>97472</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4359,13 +4353,13 @@
         <v>6069</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -4374,13 +4368,13 @@
         <v>5100</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="M13" s="7">
         <v>10</v>
@@ -4389,13 +4383,13 @@
         <v>11169</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4410,13 +4404,13 @@
         <v>30597</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="H14" s="7">
         <v>23</v>
@@ -4425,13 +4419,13 @@
         <v>26461</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="M14" s="7">
         <v>52</v>
@@ -4440,13 +4434,13 @@
         <v>57058</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4514,13 +4508,13 @@
         <v>6935</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -4529,13 +4523,13 @@
         <v>6195</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="M16" s="7">
         <v>13</v>
@@ -4544,13 +4538,13 @@
         <v>13130</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4565,13 +4559,13 @@
         <v>53951</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="H17" s="7">
         <v>48</v>
@@ -4580,13 +4574,13 @@
         <v>56423</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="M17" s="7">
         <v>100</v>
@@ -4595,13 +4589,13 @@
         <v>110374</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>219</v>
+        <v>285</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4669,13 +4663,13 @@
         <v>29542</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>285</v>
+        <v>140</v>
       </c>
       <c r="H19" s="7">
         <v>14</v>
@@ -4684,13 +4678,13 @@
         <v>14118</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="M19" s="7">
         <v>42</v>
@@ -4699,13 +4693,13 @@
         <v>43660</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4720,13 +4714,13 @@
         <v>168227</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>293</v>
+        <v>149</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="H20" s="7">
         <v>158</v>
@@ -4735,13 +4729,13 @@
         <v>177335</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="M20" s="7">
         <v>321</v>
@@ -4750,13 +4744,13 @@
         <v>345563</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4812,7 +4806,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -4833,7 +4827,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5675EF5C-9E86-4414-AEE8-F3EFFFD6200C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB622BD6-38CE-4E5F-B2E9-3439A9BE04C8}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4850,7 +4844,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4957,13 +4951,13 @@
         <v>2838</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4978,7 +4972,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -4987,13 +4981,13 @@
         <v>2838</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5008,10 +5002,10 @@
         <v>3178</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>13</v>
@@ -5026,7 +5020,7 @@
         <v>13</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>21</v>
@@ -5038,10 +5032,10 @@
         <v>10758</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>13</v>
@@ -5112,13 +5106,13 @@
         <v>11845</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -5127,13 +5121,13 @@
         <v>2656</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="M7" s="7">
         <v>14</v>
@@ -5142,13 +5136,13 @@
         <v>14501</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>319</v>
+        <v>165</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5163,13 +5157,13 @@
         <v>28757</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H8" s="7">
         <v>70</v>
@@ -5178,13 +5172,13 @@
         <v>35796</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M8" s="7">
         <v>107</v>
@@ -5193,13 +5187,13 @@
         <v>64554</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>329</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5425,10 +5419,10 @@
         <v>348</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>319</v>
+        <v>349</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -5437,13 +5431,13 @@
         <v>1644</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="M13" s="7">
         <v>9</v>
@@ -5479,7 +5473,7 @@
         <v>357</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>329</v>
+        <v>358</v>
       </c>
       <c r="H14" s="7">
         <v>66</v>
@@ -5488,10 +5482,10 @@
         <v>46432</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>360</v>
@@ -5738,7 +5732,7 @@
         <v>383</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>384</v>
+        <v>321</v>
       </c>
       <c r="H19" s="7">
         <v>22</v>
@@ -5747,13 +5741,13 @@
         <v>17291</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>386</v>
       </c>
       <c r="M19" s="7">
         <v>63</v>
@@ -5762,13 +5756,13 @@
         <v>65666</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>388</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5783,13 +5777,13 @@
         <v>155408</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>390</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>392</v>
       </c>
       <c r="H20" s="7">
         <v>337</v>
@@ -5798,13 +5792,13 @@
         <v>214986</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="M20" s="7">
         <v>507</v>
@@ -5813,13 +5807,13 @@
         <v>370393</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5875,7 +5869,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P15B_3_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P15B_3_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{57B991B4-DB2F-4A5F-B1F8-8D037E19FD4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{217B8982-C78E-41F2-931E-D01E7C39CE02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C2FDEDAB-6D93-48EE-A26D-47A6326560D7}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{2A1CC3EA-9926-4F9F-AEB9-4E67828FA6D6}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="353">
   <si>
     <t>Población que ha tenido un accidente en el trabajo en el último año en 2007 (Tasa respuesta: 3,21%)</t>
   </si>
@@ -68,94 +68,67 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>74,52%</t>
+    <t>44,65%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>68,37%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>55,35%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>74,28%</t>
+  </si>
+  <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
+    <t>88,85%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>54,67%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>61,45%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>40,94%</t>
-  </si>
-  <si>
-    <t>62,01%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>77,76%</t>
-  </si>
-  <si>
-    <t>59,06%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
+    <t>73,68%</t>
+  </si>
+  <si>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -209,7 +182,7 @@
     <t>86,29%</t>
   </si>
   <si>
-    <t>&gt;50.000hab</t>
+    <t>&gt;50.000 hab</t>
   </si>
   <si>
     <t>44,97%</t>
@@ -371,94 +344,52 @@
     <t>Población que ha tenido un accidente en el trabajo en el último año en 2012 (Tasa respuesta: 7,9%)</t>
   </si>
   <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>46,34%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>75,89%</t>
-  </si>
-  <si>
-    <t>53,66%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
-  </si>
-  <si>
-    <t>64,21%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>74,26%</t>
-  </si>
-  <si>
-    <t>58,74%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>84,58%</t>
-  </si>
-  <si>
-    <t>75,32%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>74,7%</t>
+  </si>
+  <si>
+    <t>61,41%</t>
+  </si>
+  <si>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>84,16%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
   </si>
   <si>
     <t>20,34%</t>
@@ -638,9 +569,6 @@
     <t>13,95%</t>
   </si>
   <si>
-    <t>11,15%</t>
-  </si>
-  <si>
     <t>17,12%</t>
   </si>
   <si>
@@ -668,94 +596,61 @@
     <t>82,88%</t>
   </si>
   <si>
-    <t>88,85%</t>
-  </si>
-  <si>
     <t>Población que ha tenido un accidente en el trabajo en el último año en 2016 (Tasa respuesta: 5,53%)</t>
   </si>
   <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>67,63%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>66,81%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>47,7%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>52,3%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>74,06%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>74,68%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>84,13%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
   </si>
   <si>
     <t>19,19%</t>
@@ -953,280 +848,256 @@
     <t>Población que ha tenido un accidente en el trabajo en el último año en 2023 (Tasa respuesta: 6,52%)</t>
   </si>
   <si>
-    <t>47,18%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>55,5%</t>
-  </si>
-  <si>
-    <t>52,82%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>79,13%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>51,73%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>70,83%</t>
-  </si>
-  <si>
-    <t>48,27%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>68,56%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>76,77%</t>
-  </si>
-  <si>
-    <t>63,29%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>76,14%</t>
-  </si>
-  <si>
-    <t>57,45%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>81,72%</t>
-  </si>
-  <si>
-    <t>68,3%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>80,37%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>51,64%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>48,36%</t>
+  </si>
+  <si>
+    <t>82,72%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>80,9%</t>
+  </si>
+  <si>
+    <t>68,78%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>77,18%</t>
+  </si>
+  <si>
+    <t>63,2%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>81,68%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>84,35%</t>
+  </si>
+  <si>
+    <t>75,88%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>76,38%</t>
+  </si>
+  <si>
+    <t>57,61%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>79,11%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>69,48%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>80,36%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>76,65%</t>
+  </si>
+  <si>
+    <t>69,06%</t>
+  </si>
+  <si>
+    <t>82,69%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>80,56%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
   </si>
 </sst>
 </file>
@@ -1638,8 +1509,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B27FD391-5EC2-4E42-A33E-E66AC37C87FF}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{523F4BDB-91F9-41C1-A295-F728576AED4E}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1756,10 +1627,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D4" s="7">
-        <v>3093</v>
+        <v>10171</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1777,79 +1648,79 @@
         <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="N4" s="7">
-        <v>3093</v>
+        <v>10171</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D5" s="7">
-        <v>1057</v>
+        <v>12611</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="I5" s="7">
-        <v>2672</v>
+        <v>15867</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="N5" s="7">
-        <v>3729</v>
+        <v>28478</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1858,153 +1729,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="D6" s="7">
-        <v>4150</v>
+        <v>22782</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="I6" s="7">
-        <v>2672</v>
+        <v>15867</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="N6" s="7">
-        <v>6822</v>
+        <v>38649</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D7" s="7">
-        <v>7079</v>
+        <v>15037</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>2176</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="M7" s="7">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="N7" s="7">
-        <v>7079</v>
+        <v>17213</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D8" s="7">
-        <v>11553</v>
+        <v>27743</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H8" s="7">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="I8" s="7">
-        <v>13195</v>
+        <v>27959</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M8" s="7">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="N8" s="7">
-        <v>24748</v>
+        <v>55702</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2013,153 +1884,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D9" s="7">
-        <v>18632</v>
+        <v>42780</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="I9" s="7">
-        <v>13195</v>
+        <v>30135</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="N9" s="7">
-        <v>31827</v>
+        <v>72915</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D10" s="7">
-        <v>15037</v>
+        <v>10706</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="H10" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I10" s="7">
-        <v>2176</v>
+        <v>6292</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="M10" s="7">
         <v>16</v>
       </c>
       <c r="N10" s="7">
-        <v>17213</v>
+        <v>16998</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="7">
+        <v>13</v>
+      </c>
+      <c r="D11" s="7">
+        <v>13100</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" s="7">
         <v>18</v>
       </c>
-      <c r="C11" s="7">
-        <v>25</v>
-      </c>
-      <c r="D11" s="7">
-        <v>27743</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H11" s="7">
-        <v>26</v>
-      </c>
       <c r="I11" s="7">
-        <v>27959</v>
+        <v>17822</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="M11" s="7">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="N11" s="7">
-        <v>55702</v>
+        <v>30922</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2168,153 +2039,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="D12" s="7">
-        <v>42780</v>
+        <v>23806</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H12" s="7">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I12" s="7">
-        <v>30135</v>
+        <v>24114</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M12" s="7">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="N12" s="7">
-        <v>72915</v>
+        <v>47920</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D13" s="7">
-        <v>10706</v>
+        <v>3579</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="H13" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>6292</v>
+        <v>1020</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="M13" s="7">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="N13" s="7">
-        <v>16998</v>
+        <v>4599</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D14" s="7">
-        <v>13100</v>
+        <v>30131</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="H14" s="7">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I14" s="7">
-        <v>17822</v>
+        <v>22669</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="M14" s="7">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="N14" s="7">
-        <v>30922</v>
+        <v>52800</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2323,153 +2194,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D15" s="7">
-        <v>23806</v>
+        <v>33710</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H15" s="7">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I15" s="7">
-        <v>24114</v>
+        <v>23689</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M15" s="7">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="N15" s="7">
-        <v>47920</v>
+        <v>57399</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="D16" s="7">
-        <v>3579</v>
+        <v>39493</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I16" s="7">
-        <v>1020</v>
+        <v>9488</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="M16" s="7">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="N16" s="7">
-        <v>4599</v>
+        <v>48980</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="D17" s="7">
-        <v>30131</v>
+        <v>83584</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H17" s="7">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="I17" s="7">
-        <v>22669</v>
+        <v>84318</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="M17" s="7">
-        <v>51</v>
+        <v>162</v>
       </c>
       <c r="N17" s="7">
-        <v>52800</v>
+        <v>167903</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2478,217 +2349,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>34</v>
+        <v>119</v>
       </c>
       <c r="D18" s="7">
-        <v>33710</v>
+        <v>123077</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H18" s="7">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="I18" s="7">
-        <v>23689</v>
+        <v>93806</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M18" s="7">
-        <v>56</v>
+        <v>209</v>
       </c>
       <c r="N18" s="7">
-        <v>57399</v>
+        <v>216883</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>38</v>
-      </c>
-      <c r="D19" s="7">
-        <v>39493</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="H19" s="7">
-        <v>9</v>
-      </c>
-      <c r="I19" s="7">
-        <v>9488</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="M19" s="7">
-        <v>47</v>
-      </c>
-      <c r="N19" s="7">
-        <v>48980</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q19" s="7" t="s">
+      <c r="A19" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>81</v>
-      </c>
-      <c r="D20" s="7">
-        <v>83584</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="H20" s="7">
-        <v>81</v>
-      </c>
-      <c r="I20" s="7">
-        <v>84318</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="M20" s="7">
-        <v>162</v>
-      </c>
-      <c r="N20" s="7">
-        <v>167903</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>119</v>
-      </c>
-      <c r="D21" s="7">
-        <v>123077</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="7">
-        <v>90</v>
-      </c>
-      <c r="I21" s="7">
-        <v>93806</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M21" s="7">
-        <v>209</v>
-      </c>
-      <c r="N21" s="7">
-        <v>216883</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>108</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2701,8 +2416,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34D8A1A5-426D-4B76-917F-2983B8B976BF}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39FD8998-C073-4BD7-9D14-E20E661D24FB}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2718,7 +2433,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2819,100 +2534,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D4" s="7">
-        <v>3833</v>
+        <v>14932</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>2733</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="M4" s="7">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="N4" s="7">
-        <v>3833</v>
+        <v>17665</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="D5" s="7">
-        <v>12066</v>
+        <v>44090</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="H5" s="7">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="I5" s="7">
-        <v>5903</v>
+        <v>49743</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>13</v>
+        <v>112</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M5" s="7">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="N5" s="7">
-        <v>17969</v>
+        <v>93833</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2921,153 +2636,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="D6" s="7">
-        <v>15899</v>
+        <v>59022</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="I6" s="7">
-        <v>5903</v>
+        <v>52476</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
-        <v>22</v>
+        <v>109</v>
       </c>
       <c r="N6" s="7">
-        <v>21802</v>
+        <v>111498</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D7" s="7">
-        <v>11098</v>
+        <v>16534</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H7" s="7">
+        <v>3</v>
+      </c>
+      <c r="I7" s="7">
+        <v>3134</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="M7" s="7">
+        <v>19</v>
+      </c>
+      <c r="N7" s="7">
+        <v>19668</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H7" s="7">
-        <v>2</v>
-      </c>
-      <c r="I7" s="7">
-        <v>2733</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="M7" s="7">
-        <v>13</v>
-      </c>
-      <c r="N7" s="7">
-        <v>13832</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="D8" s="7">
-        <v>32025</v>
+        <v>64755</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H8" s="7">
+        <v>67</v>
+      </c>
+      <c r="I8" s="7">
+        <v>71489</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="M8" s="7">
+        <v>124</v>
+      </c>
+      <c r="N8" s="7">
+        <v>136245</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="H8" s="7">
-        <v>42</v>
-      </c>
-      <c r="I8" s="7">
-        <v>43840</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M8" s="7">
-        <v>74</v>
-      </c>
-      <c r="N8" s="7">
-        <v>75864</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3076,153 +2791,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="D9" s="7">
-        <v>43123</v>
+        <v>81289</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="I9" s="7">
-        <v>46573</v>
+        <v>74623</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
-        <v>87</v>
+        <v>143</v>
       </c>
       <c r="N9" s="7">
-        <v>89696</v>
+        <v>155913</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D10" s="7">
-        <v>16534</v>
+        <v>14019</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="H10" s="7">
+        <v>4</v>
+      </c>
+      <c r="I10" s="7">
+        <v>5309</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>18</v>
+      </c>
+      <c r="N10" s="7">
+        <v>19328</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="H10" s="7">
-        <v>3</v>
-      </c>
-      <c r="I10" s="7">
-        <v>3134</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="M10" s="7">
-        <v>19</v>
-      </c>
-      <c r="N10" s="7">
-        <v>19668</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="D11" s="7">
-        <v>64755</v>
+        <v>44389</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="H11" s="7">
+        <v>49</v>
+      </c>
+      <c r="I11" s="7">
+        <v>51736</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>92</v>
+      </c>
+      <c r="N11" s="7">
+        <v>96125</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="H11" s="7">
-        <v>67</v>
-      </c>
-      <c r="I11" s="7">
-        <v>71489</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="M11" s="7">
-        <v>124</v>
-      </c>
-      <c r="N11" s="7">
-        <v>136245</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3231,153 +2946,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D12" s="7">
-        <v>81289</v>
+        <v>58408</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H12" s="7">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="I12" s="7">
-        <v>74623</v>
+        <v>57045</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M12" s="7">
-        <v>143</v>
+        <v>110</v>
       </c>
       <c r="N12" s="7">
-        <v>155913</v>
+        <v>115453</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>16</v>
+      </c>
+      <c r="D13" s="7">
+        <v>16711</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="H13" s="7">
+        <v>2</v>
+      </c>
+      <c r="I13" s="7">
+        <v>2270</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="7">
-        <v>14019</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="H13" s="7">
-        <v>4</v>
-      </c>
-      <c r="I13" s="7">
-        <v>5309</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>162</v>
-      </c>
       <c r="L13" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="M13" s="7">
         <v>18</v>
       </c>
       <c r="N13" s="7">
-        <v>19328</v>
+        <v>18981</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="D14" s="7">
-        <v>44389</v>
+        <v>71541</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="H14" s="7">
+        <v>65</v>
+      </c>
+      <c r="I14" s="7">
+        <v>68991</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M14" s="7">
+        <v>134</v>
+      </c>
+      <c r="N14" s="7">
+        <v>140533</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="H14" s="7">
-        <v>49</v>
-      </c>
-      <c r="I14" s="7">
-        <v>51736</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="M14" s="7">
-        <v>92</v>
-      </c>
-      <c r="N14" s="7">
-        <v>96125</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3386,153 +3101,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="D15" s="7">
-        <v>58408</v>
+        <v>88252</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H15" s="7">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="I15" s="7">
-        <v>57045</v>
+        <v>71261</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M15" s="7">
-        <v>110</v>
+        <v>152</v>
       </c>
       <c r="N15" s="7">
-        <v>115453</v>
+        <v>159514</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>62</v>
+      </c>
+      <c r="D16" s="7">
+        <v>62196</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H16" s="7">
+        <v>11</v>
+      </c>
+      <c r="I16" s="7">
+        <v>13446</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="M16" s="7">
+        <v>73</v>
+      </c>
+      <c r="N16" s="7">
+        <v>75642</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="7">
-        <v>16711</v>
-      </c>
-      <c r="E16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="H16" s="7">
-        <v>2</v>
-      </c>
-      <c r="I16" s="7">
-        <v>2270</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="M16" s="7">
-        <v>18</v>
-      </c>
-      <c r="N16" s="7">
-        <v>18981</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>69</v>
+        <v>213</v>
       </c>
       <c r="D17" s="7">
-        <v>71541</v>
+        <v>224776</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="H17" s="7">
+        <v>228</v>
+      </c>
+      <c r="I17" s="7">
+        <v>241959</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="M17" s="7">
+        <v>441</v>
+      </c>
+      <c r="N17" s="7">
+        <v>466735</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="H17" s="7">
-        <v>65</v>
-      </c>
-      <c r="I17" s="7">
-        <v>68991</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M17" s="7">
-        <v>134</v>
-      </c>
-      <c r="N17" s="7">
-        <v>140533</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>190</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>191</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3541,217 +3256,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>85</v>
+        <v>275</v>
       </c>
       <c r="D18" s="7">
-        <v>88252</v>
+        <v>286972</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H18" s="7">
-        <v>67</v>
+        <v>239</v>
       </c>
       <c r="I18" s="7">
-        <v>71261</v>
+        <v>255405</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M18" s="7">
-        <v>152</v>
+        <v>514</v>
       </c>
       <c r="N18" s="7">
-        <v>159514</v>
+        <v>542377</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>62</v>
-      </c>
-      <c r="D19" s="7">
-        <v>62196</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="H19" s="7">
-        <v>11</v>
-      </c>
-      <c r="I19" s="7">
-        <v>13446</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="M19" s="7">
-        <v>73</v>
-      </c>
-      <c r="N19" s="7">
-        <v>75642</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>213</v>
-      </c>
-      <c r="D20" s="7">
-        <v>224776</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="H20" s="7">
-        <v>228</v>
-      </c>
-      <c r="I20" s="7">
-        <v>241959</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="M20" s="7">
-        <v>441</v>
-      </c>
-      <c r="N20" s="7">
-        <v>466735</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>275</v>
-      </c>
-      <c r="D21" s="7">
-        <v>286972</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="7">
-        <v>239</v>
-      </c>
-      <c r="I21" s="7">
-        <v>255405</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M21" s="7">
-        <v>514</v>
-      </c>
-      <c r="N21" s="7">
-        <v>542377</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>108</v>
+      <c r="A19" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3764,8 +3323,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76161D8F-124C-49A9-9B5F-389C0DA9105C}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BC82C08-34C3-43C9-9684-DDEC1A4CBAEE}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3781,7 +3340,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3882,100 +3441,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D4" s="7">
-        <v>993</v>
+        <v>4936</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>187</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>1061</v>
+        <v>2823</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>190</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>214</v>
+        <v>191</v>
       </c>
       <c r="M4" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="N4" s="7">
-        <v>2054</v>
+        <v>7759</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>215</v>
+        <v>192</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>193</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="D5" s="7">
-        <v>4528</v>
+        <v>34807</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>13</v>
+        <v>197</v>
       </c>
       <c r="H5" s="7">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="I5" s="7">
-        <v>5208</v>
+        <v>45852</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>13</v>
+        <v>200</v>
       </c>
       <c r="M5" s="7">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="N5" s="7">
-        <v>9736</v>
+        <v>80659</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>13</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3984,153 +3543,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D6" s="7">
-        <v>5521</v>
+        <v>39743</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="I6" s="7">
-        <v>6269</v>
+        <v>48675</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="N6" s="7">
-        <v>11790</v>
+        <v>88418</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D7" s="7">
-        <v>3943</v>
+        <v>11602</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="H7" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>1762</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>226</v>
+        <v>14</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="M7" s="7">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="N7" s="7">
-        <v>5705</v>
+        <v>11602</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="D8" s="7">
-        <v>30279</v>
+        <v>48873</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="H8" s="7">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I8" s="7">
-        <v>40645</v>
+        <v>48599</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>234</v>
+        <v>24</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M8" s="7">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="N8" s="7">
-        <v>70923</v>
+        <v>97472</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4139,153 +3698,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="D9" s="7">
-        <v>34222</v>
+        <v>60475</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I9" s="7">
-        <v>42407</v>
+        <v>48599</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="N9" s="7">
-        <v>76628</v>
+        <v>109074</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D10" s="7">
-        <v>11602</v>
+        <v>6069</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>240</v>
+        <v>209</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>5100</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>12</v>
+        <v>220</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>14</v>
+        <v>221</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="M10" s="7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N10" s="7">
-        <v>11602</v>
+        <v>11169</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D11" s="7">
-        <v>48873</v>
+        <v>30597</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>248</v>
+        <v>217</v>
       </c>
       <c r="H11" s="7">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="I11" s="7">
-        <v>48599</v>
+        <v>26461</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>13</v>
+        <v>228</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>21</v>
+        <v>230</v>
       </c>
       <c r="M11" s="7">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="N11" s="7">
-        <v>97472</v>
+        <v>57058</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4294,153 +3853,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="D12" s="7">
-        <v>60475</v>
+        <v>36666</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H12" s="7">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="I12" s="7">
-        <v>48599</v>
+        <v>31561</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M12" s="7">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="N12" s="7">
-        <v>109074</v>
+        <v>68227</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D13" s="7">
-        <v>6069</v>
+        <v>6935</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="H13" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I13" s="7">
-        <v>5100</v>
+        <v>6195</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="M13" s="7">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="N13" s="7">
-        <v>11169</v>
+        <v>13130</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="D14" s="7">
-        <v>30597</v>
+        <v>53951</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="H14" s="7">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="I14" s="7">
-        <v>26461</v>
+        <v>56423</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="M14" s="7">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="N14" s="7">
-        <v>57058</v>
+        <v>110374</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4449,153 +4008,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="D15" s="7">
-        <v>36666</v>
+        <v>60886</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H15" s="7">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="I15" s="7">
-        <v>31561</v>
+        <v>62618</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M15" s="7">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="N15" s="7">
-        <v>68227</v>
+        <v>123504</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D16" s="7">
-        <v>6935</v>
+        <v>29542</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>271</v>
+        <v>117</v>
       </c>
       <c r="H16" s="7">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="I16" s="7">
-        <v>6195</v>
+        <v>14118</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="M16" s="7">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="N16" s="7">
-        <v>13130</v>
+        <v>43660</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>52</v>
+        <v>163</v>
       </c>
       <c r="D17" s="7">
-        <v>53951</v>
+        <v>168227</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>279</v>
+        <v>126</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="H17" s="7">
-        <v>48</v>
+        <v>158</v>
       </c>
       <c r="I17" s="7">
-        <v>56423</v>
+        <v>177335</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="M17" s="7">
-        <v>100</v>
+        <v>321</v>
       </c>
       <c r="N17" s="7">
-        <v>110374</v>
+        <v>345563</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4604,217 +4163,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>59</v>
+        <v>191</v>
       </c>
       <c r="D18" s="7">
-        <v>60886</v>
+        <v>197769</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H18" s="7">
-        <v>54</v>
+        <v>172</v>
       </c>
       <c r="I18" s="7">
-        <v>62618</v>
+        <v>191453</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M18" s="7">
-        <v>113</v>
+        <v>363</v>
       </c>
       <c r="N18" s="7">
-        <v>123504</v>
+        <v>389223</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>28</v>
-      </c>
-      <c r="D19" s="7">
-        <v>29542</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="H19" s="7">
-        <v>14</v>
-      </c>
-      <c r="I19" s="7">
-        <v>14118</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="M19" s="7">
-        <v>42</v>
-      </c>
-      <c r="N19" s="7">
-        <v>43660</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>163</v>
-      </c>
-      <c r="D20" s="7">
-        <v>168227</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="H20" s="7">
-        <v>158</v>
-      </c>
-      <c r="I20" s="7">
-        <v>177335</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="M20" s="7">
-        <v>321</v>
-      </c>
-      <c r="N20" s="7">
-        <v>345563</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>191</v>
-      </c>
-      <c r="D21" s="7">
-        <v>197769</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="7">
-        <v>172</v>
-      </c>
-      <c r="I21" s="7">
-        <v>191453</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M21" s="7">
-        <v>363</v>
-      </c>
-      <c r="N21" s="7">
-        <v>389223</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>108</v>
+      <c r="A19" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4827,8 +4230,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB622BD6-38CE-4E5F-B2E9-3439A9BE04C8}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A196F43-3CF2-4BC7-A169-09D7F5907D63}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4844,7 +4247,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>303</v>
+        <v>268</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4945,100 +4348,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D4" s="7">
-        <v>2838</v>
+        <v>14270</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>304</v>
+        <v>269</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>270</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>305</v>
+        <v>271</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>2561</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>272</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>273</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>306</v>
+        <v>274</v>
       </c>
       <c r="M4" s="7">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="N4" s="7">
-        <v>2838</v>
+        <v>16831</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>307</v>
+        <v>275</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>276</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="D5" s="7">
-        <v>3178</v>
+        <v>30611</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>309</v>
+        <v>278</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>310</v>
+        <v>279</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>13</v>
+        <v>280</v>
       </c>
       <c r="H5" s="7">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="I5" s="7">
-        <v>7580</v>
+        <v>40681</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>13</v>
+        <v>281</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>311</v>
+        <v>282</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>21</v>
+        <v>283</v>
       </c>
       <c r="M5" s="7">
-        <v>24</v>
+        <v>131</v>
       </c>
       <c r="N5" s="7">
-        <v>10758</v>
+        <v>71292</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>312</v>
+        <v>284</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>313</v>
+        <v>285</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>13</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5047,153 +4450,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="D6" s="7">
-        <v>6016</v>
+        <v>44881</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="I6" s="7">
-        <v>7580</v>
+        <v>43242</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
-        <v>26</v>
+        <v>147</v>
       </c>
       <c r="N6" s="7">
-        <v>13596</v>
+        <v>88123</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D7" s="7">
-        <v>11845</v>
+        <v>15092</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>314</v>
+        <v>287</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>315</v>
+        <v>288</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>316</v>
+        <v>289</v>
       </c>
       <c r="H7" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I7" s="7">
-        <v>2656</v>
+        <v>4214</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>317</v>
+        <v>290</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>318</v>
+        <v>291</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>319</v>
+        <v>292</v>
       </c>
       <c r="M7" s="7">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="N7" s="7">
-        <v>14501</v>
+        <v>19306</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>320</v>
+        <v>293</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>165</v>
+        <v>294</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>321</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="D8" s="7">
-        <v>28757</v>
+        <v>51037</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>322</v>
+        <v>296</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>323</v>
+        <v>297</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>324</v>
+        <v>298</v>
       </c>
       <c r="H8" s="7">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="I8" s="7">
-        <v>35796</v>
+        <v>53021</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>325</v>
+        <v>299</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>326</v>
+        <v>300</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>327</v>
+        <v>301</v>
       </c>
       <c r="M8" s="7">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="N8" s="7">
-        <v>64554</v>
+        <v>104058</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>328</v>
+        <v>302</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>329</v>
+        <v>303</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>175</v>
+        <v>304</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5202,153 +4605,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="D9" s="7">
-        <v>40602</v>
+        <v>66129</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="I9" s="7">
-        <v>38452</v>
+        <v>57235</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c r="N9" s="7">
-        <v>79055</v>
+        <v>123364</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D10" s="7">
-        <v>15459</v>
+        <v>6906</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>330</v>
+        <v>305</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>331</v>
+        <v>306</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>332</v>
+        <v>307</v>
       </c>
       <c r="H10" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I10" s="7">
-        <v>5039</v>
+        <v>1613</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>333</v>
+        <v>308</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>334</v>
+        <v>309</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>335</v>
+        <v>310</v>
       </c>
       <c r="M10" s="7">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="N10" s="7">
-        <v>20498</v>
+        <v>8519</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>336</v>
+        <v>311</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>337</v>
+        <v>312</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>338</v>
+        <v>313</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="D11" s="7">
-        <v>51073</v>
+        <v>22328</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>339</v>
+        <v>314</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>340</v>
+        <v>315</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>341</v>
+        <v>316</v>
       </c>
       <c r="H11" s="7">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="I11" s="7">
-        <v>57941</v>
+        <v>42495</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>342</v>
+        <v>317</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>343</v>
+        <v>318</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>344</v>
+        <v>319</v>
       </c>
       <c r="M11" s="7">
-        <v>133</v>
+        <v>90</v>
       </c>
       <c r="N11" s="7">
-        <v>109014</v>
+        <v>64823</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>345</v>
+        <v>320</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>346</v>
+        <v>321</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>347</v>
+        <v>322</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5357,153 +4760,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="D12" s="7">
-        <v>66532</v>
+        <v>29234</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H12" s="7">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="I12" s="7">
-        <v>62980</v>
+        <v>44108</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M12" s="7">
-        <v>152</v>
+        <v>99</v>
       </c>
       <c r="N12" s="7">
-        <v>129512</v>
+        <v>73342</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D13" s="7">
-        <v>7114</v>
+        <v>10219</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>348</v>
+        <v>242</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>349</v>
+        <v>192</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>350</v>
+        <v>323</v>
       </c>
       <c r="H13" s="7">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I13" s="7">
-        <v>1644</v>
+        <v>7383</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>351</v>
+        <v>324</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>352</v>
+        <v>325</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="M13" s="7">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="N13" s="7">
-        <v>8758</v>
+        <v>17603</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>353</v>
+        <v>327</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>354</v>
+        <v>328</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>355</v>
+        <v>329</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="D14" s="7">
-        <v>22706</v>
+        <v>48666</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>356</v>
+        <v>250</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>357</v>
+        <v>330</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>358</v>
+        <v>201</v>
       </c>
       <c r="H14" s="7">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="I14" s="7">
-        <v>46432</v>
+        <v>61635</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>359</v>
+        <v>331</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>360</v>
+        <v>333</v>
       </c>
       <c r="M14" s="7">
-        <v>90</v>
+        <v>153</v>
       </c>
       <c r="N14" s="7">
-        <v>69138</v>
+        <v>110300</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>361</v>
+        <v>334</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>362</v>
+        <v>335</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>363</v>
+        <v>336</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5512,153 +4915,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="D15" s="7">
-        <v>29820</v>
+        <v>58885</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H15" s="7">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="I15" s="7">
-        <v>48076</v>
+        <v>69018</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M15" s="7">
-        <v>99</v>
+        <v>172</v>
       </c>
       <c r="N15" s="7">
-        <v>77896</v>
+        <v>127903</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D16" s="7">
-        <v>11119</v>
+        <v>46487</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>364</v>
+        <v>337</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>365</v>
+        <v>338</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>366</v>
+        <v>339</v>
       </c>
       <c r="H16" s="7">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="I16" s="7">
-        <v>7952</v>
+        <v>15772</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>367</v>
+        <v>340</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>368</v>
+        <v>341</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>369</v>
+        <v>342</v>
       </c>
       <c r="M16" s="7">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="N16" s="7">
-        <v>19071</v>
+        <v>62259</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>370</v>
+        <v>259</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>371</v>
+        <v>343</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>372</v>
+        <v>344</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>53</v>
+        <v>170</v>
       </c>
       <c r="D17" s="7">
-        <v>49693</v>
+        <v>152643</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>373</v>
+        <v>345</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>374</v>
+        <v>346</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>375</v>
+        <v>347</v>
       </c>
       <c r="H17" s="7">
-        <v>100</v>
+        <v>337</v>
       </c>
       <c r="I17" s="7">
-        <v>67236</v>
+        <v>197831</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>376</v>
+        <v>348</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>377</v>
+        <v>349</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>378</v>
+        <v>350</v>
       </c>
       <c r="M17" s="7">
-        <v>153</v>
+        <v>507</v>
       </c>
       <c r="N17" s="7">
-        <v>116929</v>
+        <v>350474</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>379</v>
+        <v>266</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>380</v>
+        <v>351</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>381</v>
+        <v>352</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5667,217 +5070,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>62</v>
+        <v>211</v>
       </c>
       <c r="D18" s="7">
-        <v>60812</v>
+        <v>199130</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H18" s="7">
-        <v>110</v>
+        <v>359</v>
       </c>
       <c r="I18" s="7">
-        <v>75188</v>
+        <v>213603</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M18" s="7">
-        <v>172</v>
+        <v>570</v>
       </c>
       <c r="N18" s="7">
-        <v>136000</v>
+        <v>412733</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>41</v>
-      </c>
-      <c r="D19" s="7">
-        <v>48374</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="H19" s="7">
-        <v>22</v>
-      </c>
-      <c r="I19" s="7">
-        <v>17291</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="M19" s="7">
-        <v>63</v>
-      </c>
-      <c r="N19" s="7">
-        <v>65666</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>170</v>
-      </c>
-      <c r="D20" s="7">
-        <v>155408</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="H20" s="7">
-        <v>337</v>
-      </c>
-      <c r="I20" s="7">
-        <v>214986</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="M20" s="7">
-        <v>507</v>
-      </c>
-      <c r="N20" s="7">
-        <v>370393</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>211</v>
-      </c>
-      <c r="D21" s="7">
-        <v>203782</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="7">
-        <v>359</v>
-      </c>
-      <c r="I21" s="7">
-        <v>232277</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M21" s="7">
-        <v>570</v>
-      </c>
-      <c r="N21" s="7">
-        <v>436059</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>108</v>
+      <c r="A19" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
